--- a/matlab/arr_test/doc/ENV记录表.xlsx
+++ b/matlab/arr_test/doc/ENV记录表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\matlab\arr_test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E953B6-550E-4530-95FC-D802DF9552A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="11333" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,425 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+  <si>
+    <t>ReceiveDepth/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceiveRange/Km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SourceDepth/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonthIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENV16</t>
+  </si>
+  <si>
+    <t>ENV17</t>
+  </si>
+  <si>
+    <t>ENV18</t>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浅海</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过渡海</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深海</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25, 50, 100, 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10，20，30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +461,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +779,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.9296875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>119.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2">
+        <v>12</v>
+      </c>
+      <c r="J19" s="2">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D2:D19"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G14:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>